--- a/public/xls/Facilities.xlsx
+++ b/public/xls/Facilities.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="10">
   <si>
     <t>Name</t>
   </si>
@@ -45,6 +45,15 @@
   </si>
   <si>
     <t>Zipcode</t>
+  </si>
+  <si>
+    <t>Bonn 68</t>
+  </si>
+  <si>
+    <t>Bonn</t>
+  </si>
+  <si>
+    <t>Bonn 2</t>
   </si>
 </sst>
 </file>
@@ -369,10 +378,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -408,6 +417,52 @@
         <v>6</v>
       </c>
     </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2">
+        <v>123456</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2">
+        <v>12345</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3">
+        <v>123456</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3">
+        <v>12345</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
